--- a/data/Uber Launches.xlsx
+++ b/data/Uber Launches.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\Uber_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\Uber_Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,9 @@
     <sheet name="Places with Uber" sheetId="1" r:id="rId1"/>
     <sheet name="all cities" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'all cities'!$A$1:$B$70</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -296,12 +299,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -316,17 +331,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -605,7 +640,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,10 +812,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B70"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +825,7 @@
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -797,127 +833,128 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4">
-        <v>189120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57960</v>
+      </c>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B3" s="4">
-        <v>59340</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+        <v>58896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="4">
         <v>16358</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4">
-        <v>97311</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+        <v>59340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4">
         <v>333871</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="4">
         <v>1092330</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="4">
         <v>522452</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="4">
         <v>273369</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="4">
         <v>428234</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="4">
         <v>123867</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B12" s="4">
-        <v>151145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+        <v>93541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="4">
         <v>346090</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B14" s="4">
-        <v>107524</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>94375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="4">
-        <v>168310</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+        <v>97311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="4">
         <v>91733</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -925,16 +962,16 @@
         <v>26795</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="4">
         <v>7375</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="4">
@@ -943,14 +980,14 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="B20" s="4">
-        <v>316915</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+        <v>98768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="4">
@@ -959,262 +996,438 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>107977</v>
+        <v>107524</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="4">
-        <v>153990</v>
+        <v>107977</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B24" s="4">
-        <v>94375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+        <v>116595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="4">
         <v>468720</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>45</v>
+      </c>
+      <c r="B26" s="4">
+        <v>20256</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B27" s="4">
+        <v>117773</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="B28" s="4">
+        <v>603080</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
+      <c r="B29" s="4">
+        <v>121688</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B30" s="4">
+        <v>138375</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>61</v>
+      </c>
+      <c r="B31" s="4">
+        <v>140202</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="B32" s="4">
+        <v>140644</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="4">
+        <v>145736</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B34" s="4">
+        <v>751485</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" s="4">
+        <v>329839</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" s="4">
+        <v>32219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>151145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B38" s="4">
+        <v>120165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B39" s="4">
+        <v>466415</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B40" s="4">
+        <v>503127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" s="4">
+        <v>280177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="B42" s="4">
+        <v>151906</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B43" s="4">
+        <v>29946</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B44" s="4">
+        <v>132512</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" s="4">
+        <v>305680</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B46" s="4">
+        <v>153990</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B47" s="4">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="4">
+        <v>183631</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="4">
+        <v>168310</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" s="4">
+        <v>205056</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="B51" s="4">
+        <v>189120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" s="4">
+        <v>16702</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" s="4">
+        <v>233933</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B54" s="4">
+        <v>40302</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B55" s="4">
+        <v>552698</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" s="4">
+        <v>236882</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="B57" s="4">
+        <v>239023</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" s="4">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" s="4">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60" s="4">
+        <v>34790</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61" s="4">
+        <v>249008</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="B62" s="4">
+        <v>256384</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="B63" s="4">
+        <v>256406</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B64" s="4">
+        <v>18766</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" s="4">
+        <v>325837</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" s="4">
+        <v>10536</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="4">
+        <v>275506</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" s="4">
+        <v>249470</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="4">
+        <v>316915</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>79</v>
       </c>
+      <c r="B70" s="4">
+        <v>198051</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B70">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="107,524"/>
+        <filter val="107,977"/>
+        <filter val="116,595"/>
+        <filter val="117,773"/>
+        <filter val="121,688"/>
+        <filter val="138,375"/>
+        <filter val="140,202"/>
+        <filter val="140,644"/>
+        <filter val="145,736"/>
+        <filter val="151,145"/>
+        <filter val="151,906"/>
+        <filter val="153,990"/>
+        <filter val="168,310"/>
+        <filter val="189,120"/>
+        <filter val="233,933"/>
+        <filter val="239,023"/>
+        <filter val="249,008"/>
+        <filter val="256,384"/>
+        <filter val="256,406"/>
+        <filter val="275,506"/>
+        <filter val="316,915"/>
+        <filter val="57,960"/>
+        <filter val="58,896"/>
+        <filter val="59,340"/>
+        <filter val="93,541"/>
+        <filter val="94,375"/>
+        <filter val="97,311"/>
+        <filter val="98,768"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A2:B69">
+      <sortCondition ref="B1:B70"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>